--- a/Software Project 1/Source/results/cnn_mnist.xlsx
+++ b/Software Project 1/Source/results/cnn_mnist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\GitHub\MachineLearning\Software Project 1\Source\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C6C7DE-F3CB-491F-AB2F-52649C07D13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B650EC-99E9-41AE-95A3-BA4A1C555CFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,6 +644,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>CNN (MNIST)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="ro-RO"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Validation Accuracy / Epoch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1387,7 +1419,1920 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>CNN (MNIST)</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="ro-RO"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Validation </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Loss</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t> / Epoch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN1 valid_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$A$33:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$D$33:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.397300531466801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.191198421021302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12968300779660499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.112593986093997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1505552331606496E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9244272559881196E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0660919348398794E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6483493049939399E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0470205595095906E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.40255026519298E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6133638223012201E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3611165930827399E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3482665767272295E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2351066842675202E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3432322417696299E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4679890473683601E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9844225868582698E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0094700728853497E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0292036806543601E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0684171418348897E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB52-4734-8B87-19877D80D88A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN2 valid_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$A$33:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$H$33:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.41401373346646603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23340186228354701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18839228153228699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14562747379144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.132461826006571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111850551019112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10505845894416101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10296681150794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.102064189811547</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2276686181624698E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.23749533543984E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4008050461610098E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7006042003631495E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4131031210223797E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.7707587033510194E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.43703484286864E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7054696157574598E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3040585567553806E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0487144937117897E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4268849169214506E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB52-4734-8B87-19877D80D88A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$L$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN3 valid_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$A$33:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$L$33:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.18147936960061301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4611955185731206E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8873451401789895E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8523387958606003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9501266330480499E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0022234519322702E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3030679846803303E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6064496661225897E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7738317623734398E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.62544326732556E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4167813137173597E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2767383381724302E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5406738209227698E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.82516777515411E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0209476438661401E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9092494708796299E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2561749840776102E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3505440292259001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.85049083953102E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8592098193864001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB52-4734-8B87-19877D80D88A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1537542815"/>
+        <c:axId val="1372576975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1537542815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372576975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1372576975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1537542815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CNN (MNIST)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CNN1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CNN2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CNN3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.08518115989863E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.78483650833368E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3940357426181402E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79A3-4CE7-9418-235DC962EE2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="689958975"/>
+        <c:axId val="688664863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="689958975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688664863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="688664863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="689958975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CNN (MNIST)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$H$2:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CNN1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CNN2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CNN3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98684829473495395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98532366156578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99103953838348302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19BB-47A3-815F-86AAAC1ABBBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="607425231"/>
+        <c:axId val="688682335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="607425231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688682335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="688682335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607425231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CNN </a:t>
+            </a:r>
+            <a:endParaRPr lang="ro-RO">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Trainable Parameters</a:t>
+            </a:r>
+            <a:endParaRPr lang="ro-RO">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ro-RO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>parameters</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mlp_fashionmnist!$L$2:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CNN1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CNN2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CNN3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mlp_fashionmnist!$M$2:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>421642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64E5-47E0-AE89-831BB5994246}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="695691919"/>
+        <c:axId val="688669439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="695691919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688669439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="688669439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ro-RO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695691919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ro-RO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1943,6 +3888,2031 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1950,13 +5920,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>426720</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1976,6 +5946,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4E47A8-FF01-4849-B0D7-6CB56DBF681B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC81DA1C-2D81-4A91-8DA1-31DE3F22775E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>887730</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>720090</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E8D6F0-D35D-4211-8469-20D1DC02FA2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F5996A-A70F-40F2-9A73-EE5F1D859143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2283,8 +6397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
